--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.21931</v>
+        <v>42193</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San Nicolás</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora delaBase III S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42193</v>
+        <v>1.9461</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/01/2022</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154579293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1D</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fundación Ciudad del niño</t>
+          <t>Inmobiliaria y Constructora delaBase III S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50500</v>
+        <v>42193</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>05/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154579293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1G</t>
+          <t>CIUDAD DEL NIÑO LOTE 1D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>111290</v>
+        <v>50500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/12/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1E</t>
+          <t>CIUDAD DEL NIÑO LOTE 1G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56500</v>
+        <v>111290</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154279215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1C</t>
+          <t>CIUDAD DEL NIÑO LOTE 1E</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>92500</v>
+        <v>56500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/12/2021</t>
+          <t>07/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154266261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154279215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Condominio Manantiales del Llano</t>
+          <t>CIUDAD DEL NIÑO LOTE 1C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria Manantial Limitada</t>
+          <t>Fundación Ciudad del niño</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>22000</v>
+        <v>92500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16/10/2020</t>
+          <t>06/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148730067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154266261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/10/2020</t>
+          <t>16/10/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148690770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148730067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Manantiales del Llano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Inmobiliaria Manantial Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>05/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148690770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edificio Álvarez de Toledo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Nogales SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>33678</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/03/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142739691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Gran Avenida - Pedro Mira</t>
+          <t>Edificio Álvarez de Toledo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria Los Nogales SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21360</v>
+        <v>33678</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>19/03/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139092689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142739691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Álvarez de Toledo</t>
+          <t>Edificio Gran Avenida - Pedro Mira</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Delabase Álvarez de Toledo SpA</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24079</v>
+        <v>21360</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132516264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139092689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación de RCA Nº 428/2016, Edificio Habitacional Carlos Silva, por Error en Cubicación presentada</t>
+          <t>Edificio Álvarez de Toledo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme II Spa.</t>
+          <t>Delabase Álvarez de Toledo SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24079</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132030109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132516264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132004377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132030109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Toledo</t>
+          <t>Modificación de RCA Nº 428/2016, Edificio Habitacional Carlos Silva, por Error en Cubicación presentada</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliario Llano Oriente S.A.</t>
+          <t>Inmobiliaria Terrafirme II Spa.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>20/12/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132004377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edificio Carnot Nº 1021 - 1069</t>
+          <t>Parque Toledo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliario Llano Oriente S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131968109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Santa Rosa - Vargas Buston</t>
+          <t>Edificio Carnot Nº 1021 - 1069</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maestra Jardín Quinta S.A</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27600</v>
+        <v>15500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131968109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edificio Gran Avenida 6321</t>
+          <t>Edificio Santa Rosa - Vargas Buston</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Maestra Jardín Quinta S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>18/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131443269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/05/2016</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131412755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131443269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Edificio Habitacional Carlos Silva</t>
+          <t>Edificio Gran Avenida 6321</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme II Spa.</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>24/05/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131196369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131412755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EDIFICIO SAN NICOLÁS</t>
+          <t>Edificio Habitacional Carlos Silva</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Nicolás SpA.</t>
+          <t>Inmobiliaria Terrafirme II Spa.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/01/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131028724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131196369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Edificio Carlos Valdovinos</t>
+          <t>EDIFICIO SAN NICOLÁS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Inmobiliaria San Nicolás SpA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>15675</v>
+        <v>9600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>05/01/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131028724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ciudad del Niño - Lote 1F</t>
+          <t>Edificio Carlos Valdovinos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Maestra S.A.</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>21000</v>
+        <v>15675</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130873248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edificio María Auxiliadora</t>
+          <t>Ciudad del Niño - Lote 1F</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8300</v>
+        <v>21000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130881020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130873248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Edificio María Auxiliadora</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Maestra S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>8300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130881020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Linea 6 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>917000</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8135561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Linea 6 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>917000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8135561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES ESTACIÓN DE SERVICIO SHELL SANTA ROSA 3639</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7289313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>MODIFICACIÓN DE CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES ESTACIÓN DE SERVICIO SHELL SANTA ROSA 3639</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15000</v>
+        <v>20</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7289313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LINEA 6 - ETAPA 1: PIQUES Y GALERÍAS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6908850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>LINEA 6 - ETAPA 1: PIQUES Y GALERÍAS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6908850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Condominio Ciudad del Niño</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ciudad del Niño S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6733619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Condominio Ciudad del Niño</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria Ciudad del Niño S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6733619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV OCHAGAVÍA - FLORIDA TRAMO TAP CLUB HÍPICO - TAP SAN JOAQUÍN</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV OCHAGAVÍA - FLORIDA TRAMO TAP CLUB HÍPICO - TAP SAN JOAQUÍN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>9000</v>
+        <v>1700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>17700</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1750</v>
+        <v>85</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Construcción del Complejo Asistencial Red Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Servicio de Salud Metropolitano Sur</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>448221</v>
+        <v>350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/01/2010</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Construcción del Complejo Asistencial Red Sur (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicio de Salud Metropolitano Sur</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>448221</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>07/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de San Miguel, Sector Barros Luco. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Miguel</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/04/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3725195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Modificación al Plan Regulador Comunal de San Miguel, Sector Barros Luco. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ilustre Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>27/04/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3725195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,12 +4802,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>160</v>
+        <v>1650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Edificio Ciudad Mundo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3054146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Edificio Ciudad Mundo (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>24000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3054146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Obras Hidráulicas Parque La Aguada (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>65693</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2770023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Obras Hidráulicas Parque La Aguada (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>65693</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2770023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Parque del Rey - San Miguel (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Almagro S.A. Empresa Inmobiliaria</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Parque del Rey - San Miguel (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Almagro S.A. Empresa Inmobiliaria</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Parque del Rey (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Daniel Alamos Ovejero</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1965665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Conjunto Habitacional Parque del Rey (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Daniel Alamos Ovejero</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1965665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7167,17 +7167,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Plan Seccional "Zona ZU-6 Comuna San Miguel" Exp. Nº 83 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Plan Seccional "Zona ZU-6 Comuna San Miguel" Exp. Nº 83 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7503,17 +7503,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7599,17 +7599,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7695,17 +7695,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>855</v>
+        <v>40</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8223,17 +8223,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,30 +8258,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8319,17 +8319,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,12 +8402,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto Edificio Salesianos Dresden Berlín (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Progestión S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>12350</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Estudio para la Actualización y Adecuación del Plan Regulador de la Comuna de San Miguel al Plan Regulador Metropolitano de Santiago (e-seia)</t>
+          <t>Proyecto Edificio Salesianos Dresden Berlín (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Miguel</t>
+          <t>Progestión S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto de Depuración y Neutralización de Residuos Industriales Líquidos Anodite S.A. (e-seia)</t>
+          <t>Estudio para la Actualización y Adecuación del Plan Regulador de la Comuna de San Miguel al Plan Regulador Metropolitano de Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Anodite S.A.</t>
+          <t>Ilustre Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>04/02/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Proyecto de Depuración y Neutralización de Residuos Industriales Líquidos Anodite S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,20 +8642,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Anodite S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>04/02/2003</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro Comercial San Miguel</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>45</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>25/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Centro Comercial San Miguel</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>25/10/2002</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,20 +8834,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>La Foresta II</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,20 +8882,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria Icafal Vecta Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Habitacional La Foresta II</t>
+          <t>La Foresta II</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Habitacional La Foresta II</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,20 +8978,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Inmobiliaria Icafal Vecta Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,12 +9026,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>12/07/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,30 +9112,30 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>12/07/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,30 +9160,30 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9231,17 +9231,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,40 +9256,40 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,30 +9352,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sistema Norte-Sur</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>437000</v>
+        <v>110</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>29/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,30 +9400,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Sistema Norte-Sur</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2500</v>
+        <v>437000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>29/11/1999</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Edificio Séptima Avenida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Almagro S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,43 +9496,91 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>Edificio Séptima Avenida</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Almagro S.A.</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>02/07/1998</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1307&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F191" t="n">
+      <c r="F192" t="n">
         <v>300000</v>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>San Miguel</t>
         </is>

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LÍNEA 9 METRO DE SANTIAGO</t>
+          <t>Proyecto Residencial Mixto Santa Rosa 5037</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Kumquat Gestión Inmobiliaria SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9461</v>
+        <v>33191</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160461515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>San Nicolás</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora delaBase III S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42193</v>
+        <v>1.9461</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/01/2022</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154579293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1D</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fundación Ciudad del niño</t>
+          <t>Inmobiliaria y Constructora delaBase III S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50500</v>
+        <v>42193</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/12/2021</t>
+          <t>05/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154579293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1G</t>
+          <t>CIUDAD DEL NIÑO LOTE 1D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>111290</v>
+        <v>50500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/12/2021</t>
+          <t>09/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1E</t>
+          <t>CIUDAD DEL NIÑO LOTE 1G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>56500</v>
+        <v>111290</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154279215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154280767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIUDAD DEL NIÑO LOTE 1C</t>
+          <t>CIUDAD DEL NIÑO LOTE 1E</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>92500</v>
+        <v>56500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/12/2021</t>
+          <t>07/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154266261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154279215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Condominio Manantiales del Llano</t>
+          <t>CIUDAD DEL NIÑO LOTE 1C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria Manantial Limitada</t>
+          <t>Fundación Ciudad del niño</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22000</v>
+        <v>92500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/10/2020</t>
+          <t>06/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148730067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154266261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/10/2020</t>
+          <t>16/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148690770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148730067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Condominio Manantiales del Llano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Inmobiliaria Manantial Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>05/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148690770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edificio Álvarez de Toledo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Nogales SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>33678</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/03/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142739691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificio Gran Avenida - Pedro Mira</t>
+          <t>Edificio Álvarez de Toledo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliaria Los Nogales SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>21360</v>
+        <v>33678</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>19/03/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139092689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142739691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edificio Álvarez de Toledo</t>
+          <t>Edificio Gran Avenida - Pedro Mira</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Delabase Álvarez de Toledo SpA</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>24079</v>
+        <v>21360</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132516264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139092689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación de RCA Nº 428/2016, Edificio Habitacional Carlos Silva, por Error en Cubicación presentada</t>
+          <t>Edificio Álvarez de Toledo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme II Spa.</t>
+          <t>Delabase Álvarez de Toledo SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24079</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132030109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132516264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132004377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132030109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Toledo</t>
+          <t>Modificación de RCA Nº 428/2016, Edificio Habitacional Carlos Silva, por Error en Cubicación presentada</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliario Llano Oriente S.A.</t>
+          <t>Inmobiliaria Terrafirme II Spa.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>20/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132004377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edificio Carnot Nº 1021 - 1069</t>
+          <t>Parque Toledo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eurocorp Dos S.A.</t>
+          <t>Inmobiliario Llano Oriente S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131968109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edificio Santa Rosa - Vargas Buston</t>
+          <t>Edificio Carnot Nº 1021 - 1069</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Maestra Jardín Quinta S.A</t>
+          <t>Eurocorp Dos S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27600</v>
+        <v>15500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131968109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edificio Gran Avenida 6321</t>
+          <t>Edificio Santa Rosa - Vargas Buston</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eurocorp S.A.</t>
+          <t>Maestra Jardín Quinta S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>18/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131443269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/05/2016</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131412755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131443269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Edificio Habitacional Carlos Silva</t>
+          <t>Edificio Gran Avenida 6321</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Terrafirme II Spa.</t>
+          <t>Eurocorp S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>24/05/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131196369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131412755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EDIFICIO SAN NICOLÁS</t>
+          <t>Edificio Habitacional Carlos Silva</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Nicolás SpA.</t>
+          <t>Inmobiliaria Terrafirme II Spa.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/01/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131028724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131196369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Edificio Carlos Valdovinos</t>
+          <t>EDIFICIO SAN NICOLÁS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Simonetti Inmobiliaria S.A.</t>
+          <t>Inmobiliaria San Nicolás SpA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15675</v>
+        <v>9600</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>05/01/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131028724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ciudad del Niño - Lote 1F</t>
+          <t>Edificio Carlos Valdovinos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Maestra S.A.</t>
+          <t>Simonetti Inmobiliaria S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21000</v>
+        <v>15675</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130873248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Edificio María Auxiliadora</t>
+          <t>Ciudad del Niño - Lote 1F</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8300</v>
+        <v>21000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130881020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130873248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Edificio María Auxiliadora</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Maestra S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>8300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130881020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Linea 6 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>917000</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8135561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Linea 6 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>917000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8135561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES ESTACIÓN DE SERVICIO SHELL SANTA ROSA 3639</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7289313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>MODIFICACIÓN DE CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES ESTACIÓN DE SERVICIO SHELL SANTA ROSA 3639</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15000</v>
+        <v>20</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7289313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LINEA 6 - ETAPA 1: PIQUES Y GALERÍAS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6908850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>LINEA 6 - ETAPA 1: PIQUES Y GALERÍAS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6908850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Condominio Ciudad del Niño</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ciudad del Niño S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6733619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Condominio Ciudad del Niño</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inmobiliaria Ciudad del Niño S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6733619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV OCHAGAVÍA - FLORIDA TRAMO TAP CLUB HÍPICO - TAP SAN JOAQUÍN</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV OCHAGAVÍA - FLORIDA TRAMO TAP CLUB HÍPICO - TAP SAN JOAQUÍN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>9000</v>
+        <v>1700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>17700</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1750</v>
+        <v>85</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Construcción del Complejo Asistencial Red Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Servicio de Salud Metropolitano Sur</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>448221</v>
+        <v>350</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/01/2010</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Construcción del Complejo Asistencial Red Sur (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicio de Salud Metropolitano Sur</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>448221</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>07/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de San Miguel, Sector Barros Luco. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Miguel</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/04/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3725195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Modificación al Plan Regulador Comunal de San Miguel, Sector Barros Luco. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ilustre Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>27/04/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3725195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>160</v>
+        <v>1650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Edificio Ciudad Mundo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaría Paz 100 Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3054146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Edificio Ciudad Mundo (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Inmobiliaría Paz 100 Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>24000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3054146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Obras Hidráulicas Parque La Aguada (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>65693</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2770023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Obras Hidráulicas Parque La Aguada (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>65693</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2770023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Parque del Rey - San Miguel (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Almagro S.A. Empresa Inmobiliaria</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Parque del Rey - San Miguel (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Almagro S.A. Empresa Inmobiliaria</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Parque del Rey (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Daniel Alamos Ovejero</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1965665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Conjunto Habitacional Parque del Rey (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Daniel Alamos Ovejero</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1965665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7167,17 +7167,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7215,17 +7215,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Plan Seccional "Zona ZU-6 Comuna San Miguel" Exp. Nº 83 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Plan Seccional "Zona ZU-6 Comuna San Miguel" Exp. Nº 83 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7551,17 +7551,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7647,17 +7647,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7743,17 +7743,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>855</v>
+        <v>40</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8271,17 +8271,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,30 +8306,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,17 +8367,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,12 +8498,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Proyecto Edificio Salesianos Dresden Berlín (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Progestión S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>12350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Estudio para la Actualización y Adecuación del Plan Regulador de la Comuna de San Miguel al Plan Regulador Metropolitano de Santiago (e-seia)</t>
+          <t>Proyecto Edificio Salesianos Dresden Berlín (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Miguel</t>
+          <t>Progestión S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto de Depuración y Neutralización de Residuos Industriales Líquidos Anodite S.A. (e-seia)</t>
+          <t>Estudio para la Actualización y Adecuación del Plan Regulador de la Comuna de San Miguel al Plan Regulador Metropolitano de Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Anodite S.A.</t>
+          <t>Ilustre Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>04/02/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Proyecto de Depuración y Neutralización de Residuos Industriales Líquidos Anodite S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Anodite S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>04/02/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Centro Comercial San Miguel</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,20 +8738,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>45</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>25/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Centro Comercial San Miguel</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>25/10/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,20 +8882,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>La Foresta II</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,20 +8930,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria Icafal Vecta Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Habitacional La Foresta II</t>
+          <t>La Foresta II</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Habitacional La Foresta II</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,20 +9026,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Inmobiliaria Icafal Vecta Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,12 +9074,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/07/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,30 +9160,30 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>12/07/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,30 +9208,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9279,17 +9279,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,40 +9304,40 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,12 +9352,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,30 +9400,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Sistema Norte-Sur</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>437000</v>
+        <v>110</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>29/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,30 +9448,30 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Sistema Norte-Sur</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2500</v>
+        <v>437000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>29/11/1999</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Edificio Séptima Avenida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,20 +9506,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Almagro S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,43 +9544,91 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>Edificio Séptima Avenida</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Almagro S.A.</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>02/07/1998</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1307&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F192" t="n">
+      <c r="F193" t="n">
         <v>300000</v>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>San Miguel</t>
         </is>

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/San Miguel.xlsx
+++ b/data/San Miguel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
